--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/CREDITOS ZAVALETA   ABRIL  2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/CREDITOS ZAVALETA   ABRIL  2024.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="PAGOS ZAVALET  &amp; DELPA ABR 2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="PAGOS ZAVALETA &amp; ODELPA Mayo-24" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>DEPOSITOS  ZAVALETA   A     ODELPA</t>
   </si>
@@ -672,42 +675,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,6 +683,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -776,6 +779,58 @@
         <a:xfrm>
           <a:off x="11658600" y="200025"/>
           <a:ext cx="7581900" cy="6448425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\ROUSS\Pictures\2024-05-09 ESCANEO\WhatsApp Image 2024-05-09 at 1.30.45 PM.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11658600" y="200025"/>
+          <a:ext cx="7411720" cy="6858635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A2:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:I38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,17 +1144,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -1167,10 +1222,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="83">
+      <c r="B6" s="71">
         <v>45407</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="72">
         <v>45411</v>
       </c>
       <c r="D6" s="19">
@@ -1190,10 +1245,10 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="83">
+      <c r="B7" s="71">
         <v>45408</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="72">
         <v>45411</v>
       </c>
       <c r="D7" s="19">
@@ -1213,10 +1268,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="83">
+      <c r="B8" s="71">
         <v>45409</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="72">
         <v>45411</v>
       </c>
       <c r="D8" s="19">
@@ -1235,10 +1290,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="83">
+      <c r="B9" s="71">
         <v>45410</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="72">
         <v>45411</v>
       </c>
       <c r="D9" s="19">
@@ -1257,9 +1312,9 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="85"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="86"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>358751.5</v>
@@ -1578,8 +1633,8 @@
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
       <c r="E29" s="43"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="44"/>
       <c r="J29" s="45">
         <f>J28+I29</f>
@@ -1603,11 +1658,11 @@
       <c r="C31" s="48"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
       <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -1616,9 +1671,9 @@
       <c r="C32" s="49"/>
       <c r="D32" s="50"/>
       <c r="E32" s="43"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -1626,9 +1681,9 @@
       <c r="C33" s="49"/>
       <c r="D33" s="50"/>
       <c r="E33" s="43"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -1636,9 +1691,9 @@
       <c r="C34" s="49"/>
       <c r="D34" s="50"/>
       <c r="E34" s="43"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="79"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -1646,9 +1701,9 @@
       <c r="C35" s="49"/>
       <c r="D35" s="51"/>
       <c r="E35" s="43"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="79"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -1657,9 +1712,9 @@
       <c r="D36" s="51"/>
       <c r="E36" s="43"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -1668,9 +1723,9 @@
       <c r="D37" s="51"/>
       <c r="E37" s="43"/>
       <c r="F37" s="52"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
@@ -1678,9 +1733,9 @@
       <c r="C38" s="49"/>
       <c r="D38" s="51"/>
       <c r="E38" s="43"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -1865,6 +1920,790 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:S61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="57" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="69" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15">
+        <f>E28+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>J4+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:E28" si="0">E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J28" si="1">J5+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36">
+        <v>45421</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38">
+        <v>-234656.2</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-234656.2</v>
+      </c>
+      <c r="O28" s="70"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45">
+        <f>J28+I29</f>
+        <v>-234656.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="43"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="83"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="43"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="43"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="83"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="43"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="43"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
+    </row>
+    <row r="39" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="43"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="43"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="43"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="43"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="56"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="43"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="56"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="43"/>
+      <c r="F46"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="56"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="43"/>
+      <c r="F47"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48"/>
+      <c r="E48" s="43"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49"/>
+      <c r="E49" s="43"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50"/>
+      <c r="E50" s="43"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51"/>
+      <c r="E51" s="43"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52"/>
+      <c r="E52" s="43"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53"/>
+      <c r="E53" s="43"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="58"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="58"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="61"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="58"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="61"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="61"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="58"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="68"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="68"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:I38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
